--- a/quest/startups/tables/countries (1).xlsx
+++ b/quest/startups/tables/countries (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ironhack_study\quest\startups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ironhack_study\quest\startups\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C16AB15-46F5-4800-B8E1-6D63CF066BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B5265E-47CA-411B-AFB6-914B978674CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countries (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Country</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Population</t>
-  </si>
-  <si>
-    <t>Innovation Score</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -439,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1291,16 +1288,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,13 +1316,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -1342,13 +1336,10 @@
       <c r="F2">
         <v>41128771</v>
       </c>
-      <c r="G2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -1365,13 +1356,10 @@
       <c r="F3">
         <v>2842321</v>
       </c>
-      <c r="G3">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -1388,13 +1376,10 @@
       <c r="F4">
         <v>44903225</v>
       </c>
-      <c r="G4">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -1411,13 +1396,10 @@
       <c r="F5">
         <v>35588987</v>
       </c>
-      <c r="G5">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2022</v>
@@ -1434,13 +1416,10 @@
       <c r="F6">
         <v>93763</v>
       </c>
-      <c r="G6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -1457,13 +1436,10 @@
       <c r="F7">
         <v>45510318</v>
       </c>
-      <c r="G7">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -1480,13 +1456,10 @@
       <c r="F8">
         <v>26177413</v>
       </c>
-      <c r="G8">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -1503,13 +1476,10 @@
       <c r="F9">
         <v>8939617</v>
       </c>
-      <c r="G9">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -1526,13 +1496,10 @@
       <c r="F10">
         <v>171186372</v>
       </c>
-      <c r="G10">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -1549,13 +1516,10 @@
       <c r="F11">
         <v>281635</v>
       </c>
-      <c r="G11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -1572,13 +1536,10 @@
       <c r="F12">
         <v>9534954</v>
       </c>
-      <c r="G12">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -1595,13 +1556,10 @@
       <c r="F13">
         <v>11655930</v>
       </c>
-      <c r="G13">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -1618,13 +1576,10 @@
       <c r="F14">
         <v>405272</v>
       </c>
-      <c r="G14" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -1641,13 +1596,10 @@
       <c r="F15">
         <v>13352864</v>
       </c>
-      <c r="G15">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2022</v>
@@ -1664,13 +1616,10 @@
       <c r="F16">
         <v>12224110</v>
       </c>
-      <c r="G16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>2022</v>
@@ -1687,13 +1636,10 @@
       <c r="F17">
         <v>3233526</v>
       </c>
-      <c r="G17">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>2022</v>
@@ -1710,13 +1656,10 @@
       <c r="F18">
         <v>2630296</v>
       </c>
-      <c r="G18">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -1733,13 +1676,10 @@
       <c r="F19">
         <v>218541212</v>
       </c>
-      <c r="G19">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -1756,13 +1696,10 @@
       <c r="F20">
         <v>6781953</v>
       </c>
-      <c r="G20">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -1779,13 +1716,10 @@
       <c r="F21">
         <v>22673762</v>
       </c>
-      <c r="G21">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -1802,13 +1736,10 @@
       <c r="F22">
         <v>16767842</v>
       </c>
-      <c r="G22">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -1825,13 +1756,10 @@
       <c r="F23">
         <v>27914536</v>
       </c>
-      <c r="G23">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>2022</v>
@@ -1848,13 +1776,10 @@
       <c r="F24">
         <v>38454327</v>
       </c>
-      <c r="G24">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1871,13 +1796,10 @@
       <c r="F25">
         <v>19603733</v>
       </c>
-      <c r="G25">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -1894,13 +1816,10 @@
       <c r="F26">
         <v>1425887337</v>
       </c>
-      <c r="G26">
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -1917,13 +1836,10 @@
       <c r="F27">
         <v>51874024</v>
       </c>
-      <c r="G27">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>2022</v>
@@ -1940,13 +1856,10 @@
       <c r="F28">
         <v>5180829</v>
       </c>
-      <c r="G28">
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -1963,13 +1876,10 @@
       <c r="F29">
         <v>4030358</v>
       </c>
-      <c r="G29">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -1986,13 +1896,10 @@
       <c r="F30">
         <v>1251488</v>
       </c>
-      <c r="G30">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -2009,13 +1916,10 @@
       <c r="F31">
         <v>5882261</v>
       </c>
-      <c r="G31">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -2032,13 +1936,10 @@
       <c r="F32">
         <v>72737</v>
       </c>
-      <c r="G32" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -2055,13 +1956,10 @@
       <c r="F33">
         <v>11228821</v>
       </c>
-      <c r="G33">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -2078,13 +1976,10 @@
       <c r="F34">
         <v>18001000</v>
       </c>
-      <c r="G34">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -2101,13 +1996,10 @@
       <c r="F35">
         <v>6336392</v>
       </c>
-      <c r="G35">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -2124,13 +2016,10 @@
       <c r="F36">
         <v>1326062</v>
       </c>
-      <c r="G36">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>2022</v>
@@ -2147,13 +2036,10 @@
       <c r="F37">
         <v>123379924</v>
       </c>
-      <c r="G37">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>2022</v>
@@ -2170,13 +2056,10 @@
       <c r="F38">
         <v>5540745</v>
       </c>
-      <c r="G38">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>2022</v>
@@ -2193,13 +2076,10 @@
       <c r="F39">
         <v>64626628</v>
       </c>
-      <c r="G39">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>2022</v>
@@ -2216,13 +2096,10 @@
       <c r="F40">
         <v>2388992</v>
       </c>
-      <c r="G40" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -2239,13 +2116,10 @@
       <c r="F41">
         <v>3744385</v>
       </c>
-      <c r="G41">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>2022</v>
@@ -2262,13 +2136,10 @@
       <c r="F42">
         <v>83369843</v>
       </c>
-      <c r="G42">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>2022</v>
@@ -2285,13 +2156,10 @@
       <c r="F43">
         <v>33475870</v>
       </c>
-      <c r="G43">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>2022</v>
@@ -2308,13 +2176,10 @@
       <c r="F44">
         <v>10384971</v>
       </c>
-      <c r="G44">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>2022</v>
@@ -2331,13 +2196,10 @@
       <c r="F45">
         <v>125438</v>
       </c>
-      <c r="G45" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>2022</v>
@@ -2354,13 +2216,10 @@
       <c r="F46">
         <v>17843908</v>
       </c>
-      <c r="G46">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>2022</v>
@@ -2377,13 +2236,10 @@
       <c r="F47">
         <v>13859341</v>
       </c>
-      <c r="G47">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>2022</v>
@@ -2400,13 +2256,10 @@
       <c r="F48">
         <v>808726</v>
       </c>
-      <c r="G48" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -2423,13 +2276,10 @@
       <c r="F49">
         <v>11584996</v>
       </c>
-      <c r="G49" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -2446,13 +2296,10 @@
       <c r="F50">
         <v>10432860</v>
       </c>
-      <c r="G50">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -2469,13 +2316,10 @@
       <c r="F51">
         <v>7488865</v>
       </c>
-      <c r="G51" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -2492,13 +2336,10 @@
       <c r="F52">
         <v>9967308</v>
       </c>
-      <c r="G52">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>2022</v>
@@ -2515,13 +2356,10 @@
       <c r="F53">
         <v>1417173173</v>
       </c>
-      <c r="G53">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>2022</v>
@@ -2538,13 +2376,10 @@
       <c r="F54">
         <v>275501339</v>
       </c>
-      <c r="G54">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -2561,13 +2396,10 @@
       <c r="F55">
         <v>5023109</v>
       </c>
-      <c r="G55">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -2584,13 +2416,10 @@
       <c r="F56">
         <v>59037474</v>
       </c>
-      <c r="G56">
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>2022</v>
@@ -2607,13 +2436,10 @@
       <c r="F57">
         <v>2827377</v>
       </c>
-      <c r="G57">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>2022</v>
@@ -2630,13 +2456,10 @@
       <c r="F58">
         <v>123951692</v>
       </c>
-      <c r="G58">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -2653,13 +2476,10 @@
       <c r="F59">
         <v>11285869</v>
       </c>
-      <c r="G59">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -2676,13 +2496,10 @@
       <c r="F60">
         <v>19397998</v>
       </c>
-      <c r="G60">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -2699,13 +2516,10 @@
       <c r="F61">
         <v>54027487</v>
       </c>
-      <c r="G61">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>2022</v>
@@ -2722,13 +2536,10 @@
       <c r="F62">
         <v>51815810</v>
       </c>
-      <c r="G62" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>2022</v>
@@ -2745,13 +2556,10 @@
       <c r="F63">
         <v>1850651</v>
       </c>
-      <c r="G63">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>2022</v>
@@ -2768,13 +2576,10 @@
       <c r="F64">
         <v>5489739</v>
       </c>
-      <c r="G64" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>2022</v>
@@ -2791,13 +2596,10 @@
       <c r="F65">
         <v>5302681</v>
       </c>
-      <c r="G65" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>2022</v>
@@ -2814,13 +2616,10 @@
       <c r="F66">
         <v>2750055</v>
       </c>
-      <c r="G66">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -2837,13 +2636,10 @@
       <c r="F67">
         <v>647599</v>
       </c>
-      <c r="G67">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>2022</v>
@@ -2860,13 +2656,10 @@
       <c r="F68">
         <v>29611714</v>
       </c>
-      <c r="G68">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>2022</v>
@@ -2883,13 +2676,10 @@
       <c r="F69">
         <v>20405317</v>
       </c>
-      <c r="G69" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>2022</v>
@@ -2906,13 +2696,10 @@
       <c r="F70">
         <v>33938221</v>
       </c>
-      <c r="G70">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>2022</v>
@@ -2929,13 +2716,10 @@
       <c r="F71">
         <v>22593590</v>
       </c>
-      <c r="G71">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>2022</v>
@@ -2952,13 +2736,10 @@
       <c r="F72">
         <v>533286</v>
       </c>
-      <c r="G72">
-        <v>49.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>2022</v>
@@ -2975,13 +2756,10 @@
       <c r="F73">
         <v>4736139</v>
       </c>
-      <c r="G73">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>2022</v>
@@ -2998,13 +2776,10 @@
       <c r="F74">
         <v>1299469</v>
       </c>
-      <c r="G74">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>2022</v>
@@ -3021,13 +2796,10 @@
       <c r="F75">
         <v>127504125</v>
       </c>
-      <c r="G75">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>2022</v>
@@ -3044,13 +2816,10 @@
       <c r="F76">
         <v>3272996</v>
       </c>
-      <c r="G76" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>2022</v>
@@ -3067,13 +2836,10 @@
       <c r="F77">
         <v>3398366</v>
       </c>
-      <c r="G77">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>2022</v>
@@ -3090,13 +2856,10 @@
       <c r="F78">
         <v>37457971</v>
       </c>
-      <c r="G78">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>2022</v>
@@ -3113,13 +2876,10 @@
       <c r="F79">
         <v>32969518</v>
       </c>
-      <c r="G79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>2022</v>
@@ -3136,13 +2896,10 @@
       <c r="F80">
         <v>54179306</v>
       </c>
-      <c r="G80">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>2022</v>
@@ -3159,13 +2916,10 @@
       <c r="F81">
         <v>2567012</v>
       </c>
-      <c r="G81">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>2022</v>
@@ -3182,13 +2936,10 @@
       <c r="F82">
         <v>30547580</v>
       </c>
-      <c r="G82">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>2022</v>
@@ -3205,13 +2956,10 @@
       <c r="F83">
         <v>17564014</v>
       </c>
-      <c r="G83">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>2022</v>
@@ -3228,13 +2976,10 @@
       <c r="F84">
         <v>5185288</v>
       </c>
-      <c r="G84">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>2022</v>
@@ -3251,13 +2996,10 @@
       <c r="F85">
         <v>6948392</v>
       </c>
-      <c r="G85">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -3274,13 +3016,10 @@
       <c r="F86">
         <v>26207977</v>
       </c>
-      <c r="G86">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>2022</v>
@@ -3297,13 +3036,10 @@
       <c r="F87">
         <v>218541212</v>
       </c>
-      <c r="G87">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>2022</v>
@@ -3320,13 +3056,10 @@
       <c r="F88">
         <v>2093599</v>
       </c>
-      <c r="G88">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>2022</v>
@@ -3343,13 +3076,10 @@
       <c r="F89">
         <v>5434319</v>
       </c>
-      <c r="G89">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>2022</v>
@@ -3366,13 +3096,10 @@
       <c r="F90">
         <v>235824862</v>
       </c>
-      <c r="G90">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>2022</v>
@@ -3389,13 +3116,10 @@
       <c r="F91">
         <v>4408581</v>
       </c>
-      <c r="G91">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>2022</v>
@@ -3412,13 +3136,10 @@
       <c r="F92">
         <v>6780744</v>
       </c>
-      <c r="G92">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>2022</v>
@@ -3435,13 +3156,10 @@
       <c r="F93">
         <v>34049588</v>
       </c>
-      <c r="G93">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>2022</v>
@@ -3458,13 +3176,10 @@
       <c r="F94">
         <v>115559009</v>
       </c>
-      <c r="G94">
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>2022</v>
@@ -3481,13 +3196,10 @@
       <c r="F95">
         <v>39857145</v>
       </c>
-      <c r="G95">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>2022</v>
@@ -3504,13 +3216,10 @@
       <c r="F96">
         <v>10270865</v>
       </c>
-      <c r="G96">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>2022</v>
@@ -3527,13 +3236,10 @@
       <c r="F97">
         <v>19659267</v>
       </c>
-      <c r="G97">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>2022</v>
@@ -3550,13 +3256,10 @@
       <c r="F98">
         <v>144713314</v>
       </c>
-      <c r="G98">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>2022</v>
@@ -3573,13 +3276,10 @@
       <c r="F99">
         <v>13776698</v>
       </c>
-      <c r="G99">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>2022</v>
@@ -3596,13 +3296,10 @@
       <c r="F100">
         <v>17316449</v>
       </c>
-      <c r="G100">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>2022</v>
@@ -3619,13 +3316,10 @@
       <c r="F101">
         <v>7221365</v>
       </c>
-      <c r="G101">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>2022</v>
@@ -3642,13 +3336,10 @@
       <c r="F102">
         <v>8605718</v>
       </c>
-      <c r="G102" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -3665,13 +3356,10 @@
       <c r="F103">
         <v>5975689</v>
       </c>
-      <c r="G103">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>2022</v>
@@ -3688,13 +3376,10 @@
       <c r="F104">
         <v>5643453</v>
       </c>
-      <c r="G104" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>2022</v>
@@ -3711,13 +3396,10 @@
       <c r="F105">
         <v>2119844</v>
       </c>
-      <c r="G105">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>2022</v>
@@ -3734,13 +3416,10 @@
       <c r="F106">
         <v>59893885</v>
       </c>
-      <c r="G106">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -3757,13 +3436,10 @@
       <c r="F107">
         <v>47558630</v>
       </c>
-      <c r="G107">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>2022</v>
@@ -3780,13 +3456,10 @@
       <c r="F108">
         <v>21832143</v>
       </c>
-      <c r="G108">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>2022</v>
@@ -3803,13 +3476,10 @@
       <c r="F109">
         <v>47657</v>
       </c>
-      <c r="G109" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>2022</v>
@@ -3826,13 +3496,10 @@
       <c r="F110">
         <v>179857</v>
       </c>
-      <c r="G110" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>2022</v>
@@ -3849,13 +3516,10 @@
       <c r="F111">
         <v>103948</v>
       </c>
-      <c r="G111" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>2022</v>
@@ -3872,13 +3536,10 @@
       <c r="F112">
         <v>46874204</v>
       </c>
-      <c r="G112" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>2022</v>
@@ -3895,13 +3556,10 @@
       <c r="F113">
         <v>618040</v>
       </c>
-      <c r="G113" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -3918,13 +3576,10 @@
       <c r="F114">
         <v>10549347</v>
       </c>
-      <c r="G114">
-        <v>61.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -3941,13 +3596,10 @@
       <c r="F115">
         <v>65497748</v>
       </c>
-      <c r="G115" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>2022</v>
@@ -3964,13 +3616,10 @@
       <c r="F116">
         <v>71697030</v>
       </c>
-      <c r="G116">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>2022</v>
@@ -3987,13 +3636,10 @@
       <c r="F117">
         <v>409984</v>
       </c>
-      <c r="G117" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>2022</v>
@@ -4010,13 +3656,10 @@
       <c r="F118">
         <v>2705992</v>
       </c>
-      <c r="G118" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>2022</v>
@@ -4033,13 +3676,10 @@
       <c r="F119">
         <v>8848699</v>
       </c>
-      <c r="G119">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>2022</v>
@@ -4056,13 +3696,10 @@
       <c r="F120">
         <v>1531044</v>
       </c>
-      <c r="G120">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>2022</v>
@@ -4079,13 +3716,10 @@
       <c r="F121">
         <v>12356117</v>
       </c>
-      <c r="G121">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>2022</v>
@@ -4102,13 +3736,10 @@
       <c r="F122">
         <v>85341241</v>
       </c>
-      <c r="G122" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>2022</v>
@@ -4125,13 +3756,10 @@
       <c r="F123">
         <v>47249585</v>
       </c>
-      <c r="G123">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>2022</v>
@@ -4148,13 +3776,10 @@
       <c r="F124">
         <v>39701739</v>
       </c>
-      <c r="G124">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>2022</v>
@@ -4171,13 +3796,10 @@
       <c r="F125">
         <v>9441129</v>
       </c>
-      <c r="G125" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>2022</v>
@@ -4194,13 +3816,10 @@
       <c r="F126">
         <v>67508936</v>
       </c>
-      <c r="G126" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>2022</v>
@@ -4217,13 +3836,10 @@
       <c r="F127">
         <v>338289857</v>
       </c>
-      <c r="G127" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>2022</v>
@@ -4240,13 +3856,10 @@
       <c r="F128">
         <v>3422794</v>
       </c>
-      <c r="G128">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>2022</v>
@@ -4263,13 +3876,10 @@
       <c r="F129">
         <v>34627652</v>
       </c>
-      <c r="G129">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>2022</v>
@@ -4286,13 +3896,10 @@
       <c r="F130">
         <v>98186856</v>
       </c>
-      <c r="G130" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>2022</v>
@@ -4309,13 +3916,10 @@
       <c r="F131">
         <v>20017675</v>
       </c>
-      <c r="G131">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>2022</v>
@@ -4331,9 +3935,6 @@
       </c>
       <c r="F132">
         <v>16320537</v>
-      </c>
-      <c r="G132">
-        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
